--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Postn-Ptk7.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Postn-Ptk7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.09899792991646</v>
+        <v>5.983183</v>
       </c>
       <c r="H2">
-        <v>1.09899792991646</v>
+        <v>17.949549</v>
       </c>
       <c r="I2">
-        <v>0.007221571844413015</v>
+        <v>0.03484570698140468</v>
       </c>
       <c r="J2">
-        <v>0.007221571844413015</v>
+        <v>0.03484570698140468</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.35965485157078</v>
+        <v>1.160895333333333</v>
       </c>
       <c r="N2">
-        <v>1.35965485157078</v>
+        <v>3.482686</v>
       </c>
       <c r="O2">
-        <v>0.279492185193236</v>
+        <v>0.1634777648551575</v>
       </c>
       <c r="P2">
-        <v>0.279492185193236</v>
+        <v>0.1634777648551575</v>
       </c>
       <c r="Q2">
-        <v>1.494257867277159</v>
+        <v>6.945849223179335</v>
       </c>
       <c r="R2">
-        <v>1.494257867277159</v>
+        <v>62.51264300861401</v>
       </c>
       <c r="S2">
-        <v>0.002018372895324941</v>
+        <v>0.005696498292117795</v>
       </c>
       <c r="T2">
-        <v>0.002018372895324941</v>
+        <v>0.005696498292117795</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.09899792991646</v>
+        <v>5.983183</v>
       </c>
       <c r="H3">
-        <v>1.09899792991646</v>
+        <v>17.949549</v>
       </c>
       <c r="I3">
-        <v>0.007221571844413015</v>
+        <v>0.03484570698140468</v>
       </c>
       <c r="J3">
-        <v>0.007221571844413015</v>
+        <v>0.03484570698140468</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.50507813060809</v>
+        <v>1.400586333333333</v>
       </c>
       <c r="N3">
-        <v>3.50507813060809</v>
+        <v>4.201759</v>
       </c>
       <c r="O3">
-        <v>0.720507814806764</v>
+        <v>0.1972311514101592</v>
       </c>
       <c r="P3">
-        <v>0.720507814806764</v>
+        <v>0.1972311514101592</v>
       </c>
       <c r="Q3">
-        <v>3.852073609733746</v>
+        <v>8.379964339632334</v>
       </c>
       <c r="R3">
-        <v>3.852073609733746</v>
+        <v>75.41967905669101</v>
       </c>
       <c r="S3">
-        <v>0.005203198949088073</v>
+        <v>0.006872658909643468</v>
       </c>
       <c r="T3">
-        <v>0.005203198949088073</v>
+        <v>0.006872658909643468</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>87.1570543822759</v>
+        <v>5.983183</v>
       </c>
       <c r="H4">
-        <v>87.1570543822759</v>
+        <v>17.949549</v>
       </c>
       <c r="I4">
-        <v>0.5727134809224455</v>
+        <v>0.03484570698140468</v>
       </c>
       <c r="J4">
-        <v>0.5727134809224455</v>
+        <v>0.03484570698140468</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.35965485157078</v>
+        <v>4.539761333333334</v>
       </c>
       <c r="N4">
-        <v>1.35965485157078</v>
+        <v>13.619284</v>
       </c>
       <c r="O4">
-        <v>0.279492185193236</v>
+        <v>0.6392910837346834</v>
       </c>
       <c r="P4">
-        <v>0.279492185193236</v>
+        <v>0.6392910837346832</v>
       </c>
       <c r="Q4">
-        <v>118.5035118394797</v>
+        <v>27.16222283365734</v>
       </c>
       <c r="R4">
-        <v>118.5035118394797</v>
+        <v>244.460005502916</v>
       </c>
       <c r="S4">
-        <v>0.160068942272639</v>
+        <v>0.02227654977964342</v>
       </c>
       <c r="T4">
-        <v>0.160068942272639</v>
+        <v>0.02227654977964341</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>87.1570543822759</v>
+        <v>93.29698033333334</v>
       </c>
       <c r="H5">
-        <v>87.1570543822759</v>
+        <v>279.890941</v>
       </c>
       <c r="I5">
-        <v>0.5727134809224455</v>
+        <v>0.543356143200903</v>
       </c>
       <c r="J5">
-        <v>0.5727134809224455</v>
+        <v>0.5433561432009029</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>3.50507813060809</v>
+        <v>1.160895333333333</v>
       </c>
       <c r="N5">
-        <v>3.50507813060809</v>
+        <v>3.482686</v>
       </c>
       <c r="O5">
-        <v>0.720507814806764</v>
+        <v>0.1634777648551575</v>
       </c>
       <c r="P5">
-        <v>0.720507814806764</v>
+        <v>0.1634777648551575</v>
       </c>
       <c r="Q5">
-        <v>305.4922852435353</v>
+        <v>108.3080290830585</v>
       </c>
       <c r="R5">
-        <v>305.4922852435353</v>
+        <v>974.772261747526</v>
       </c>
       <c r="S5">
-        <v>0.4126445386498065</v>
+        <v>0.08882664781080252</v>
       </c>
       <c r="T5">
-        <v>0.4126445386498065</v>
+        <v>0.0888266478108025</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>63.9265962294409</v>
+        <v>93.29698033333334</v>
       </c>
       <c r="H6">
-        <v>63.9265962294409</v>
+        <v>279.890941</v>
       </c>
       <c r="I6">
-        <v>0.4200649472331415</v>
+        <v>0.543356143200903</v>
       </c>
       <c r="J6">
-        <v>0.4200649472331415</v>
+        <v>0.5433561432009029</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.35965485157078</v>
+        <v>1.400586333333333</v>
       </c>
       <c r="N6">
-        <v>1.35965485157078</v>
+        <v>4.201759</v>
       </c>
       <c r="O6">
-        <v>0.279492185193236</v>
+        <v>0.1972311514101592</v>
       </c>
       <c r="P6">
-        <v>0.279492185193236</v>
+        <v>0.1972311514101592</v>
       </c>
       <c r="Q6">
-        <v>86.91810670776565</v>
+        <v>130.6704755961354</v>
       </c>
       <c r="R6">
-        <v>86.91810670776565</v>
+        <v>1176.034280365219</v>
       </c>
       <c r="S6">
-        <v>0.1174048700252721</v>
+        <v>0.1071667577492974</v>
       </c>
       <c r="T6">
-        <v>0.1174048700252721</v>
+        <v>0.1071667577492974</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>63.9265962294409</v>
+        <v>93.29698033333334</v>
       </c>
       <c r="H7">
-        <v>63.9265962294409</v>
+        <v>279.890941</v>
       </c>
       <c r="I7">
-        <v>0.4200649472331415</v>
+        <v>0.543356143200903</v>
       </c>
       <c r="J7">
-        <v>0.4200649472331415</v>
+        <v>0.5433561432009029</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.50507813060809</v>
+        <v>4.539761333333334</v>
       </c>
       <c r="N7">
-        <v>3.50507813060809</v>
+        <v>13.619284</v>
       </c>
       <c r="O7">
-        <v>0.720507814806764</v>
+        <v>0.6392910837346834</v>
       </c>
       <c r="P7">
-        <v>0.720507814806764</v>
+        <v>0.6392910837346832</v>
       </c>
       <c r="Q7">
-        <v>224.0677144080269</v>
+        <v>423.5460238340272</v>
       </c>
       <c r="R7">
-        <v>224.0677144080269</v>
+        <v>3811.914214506244</v>
       </c>
       <c r="S7">
-        <v>0.3026600772078694</v>
+        <v>0.3473627376408031</v>
       </c>
       <c r="T7">
-        <v>0.3026600772078694</v>
+        <v>0.3473627376408029</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>72.424862</v>
+      </c>
+      <c r="H8">
+        <v>217.274586</v>
+      </c>
+      <c r="I8">
+        <v>0.4217981498176924</v>
+      </c>
+      <c r="J8">
+        <v>0.4217981498176924</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>1.160895333333333</v>
+      </c>
+      <c r="N8">
+        <v>3.482686</v>
+      </c>
+      <c r="O8">
+        <v>0.1634777648551575</v>
+      </c>
+      <c r="P8">
+        <v>0.1634777648551575</v>
+      </c>
+      <c r="Q8">
+        <v>84.07768431311068</v>
+      </c>
+      <c r="R8">
+        <v>756.699158817996</v>
+      </c>
+      <c r="S8">
+        <v>0.06895461875223723</v>
+      </c>
+      <c r="T8">
+        <v>0.06895461875223721</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>72.424862</v>
+      </c>
+      <c r="H9">
+        <v>217.274586</v>
+      </c>
+      <c r="I9">
+        <v>0.4217981498176924</v>
+      </c>
+      <c r="J9">
+        <v>0.4217981498176924</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.400586333333333</v>
+      </c>
+      <c r="N9">
+        <v>4.201759</v>
+      </c>
+      <c r="O9">
+        <v>0.1972311514101592</v>
+      </c>
+      <c r="P9">
+        <v>0.1972311514101592</v>
+      </c>
+      <c r="Q9">
+        <v>101.4372719107527</v>
+      </c>
+      <c r="R9">
+        <v>912.935447196774</v>
+      </c>
+      <c r="S9">
+        <v>0.08319173475121831</v>
+      </c>
+      <c r="T9">
+        <v>0.08319173475121831</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>72.424862</v>
+      </c>
+      <c r="H10">
+        <v>217.274586</v>
+      </c>
+      <c r="I10">
+        <v>0.4217981498176924</v>
+      </c>
+      <c r="J10">
+        <v>0.4217981498176924</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.539761333333334</v>
+      </c>
+      <c r="N10">
+        <v>13.619284</v>
+      </c>
+      <c r="O10">
+        <v>0.6392910837346834</v>
+      </c>
+      <c r="P10">
+        <v>0.6392910837346832</v>
+      </c>
+      <c r="Q10">
+        <v>328.7915880796027</v>
+      </c>
+      <c r="R10">
+        <v>2959.124292716424</v>
+      </c>
+      <c r="S10">
+        <v>0.2696517963142369</v>
+      </c>
+      <c r="T10">
+        <v>0.2696517963142369</v>
       </c>
     </row>
   </sheetData>
